--- a/backend/PDF/test.xlsx
+++ b/backend/PDF/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Disk_II/Projects/SMSSender/backend/PDF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F811227F-239A-4642-9021-AFE76A62BF32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE377947-AF3E-3743-AA32-0842386B4ADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1320" windowWidth="28240" windowHeight="16760" xr2:uid="{F2D8A617-BEDF-D248-A8A0-9959517A9D7B}"/>
   </bookViews>
@@ -90,9 +90,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFF2F2F2"/>
-      <name val="Menlo"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -435,14 +435,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4662E-0BFA-BF4A-A2CB-08BB3024E31E}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="233.1640625" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="18.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="233.1640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
